--- a/biology/Zoologie/Edwardsia_rubricollum/Edwardsia_rubricollum.xlsx
+++ b/biology/Zoologie/Edwardsia_rubricollum/Edwardsia_rubricollum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edwardsia rubricollum est une espèce de la famille des Edwardsiidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Edwardsia rubricollum Stimpson, 1856[1].
-Edwardsia rubricollum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Edwardsia rubricollum Stimpson, 1856.
+Edwardsia rubricollum a pour synonymes :
 Ammonactis (Edwardsia) rubricollum Verrill
 Ammonactis rubricollum Verrill</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Wm. Stimpson, 1855, « Descriptions of some of the new Marine Invertebrata from the Chinese and Japanese Seas », Proceedings of the Academy of Natural Sciences, Philadelphie, vol. 7, n. 10, p. 375-384 (lire en ligne).</t>
         </is>
